--- a/data/reports/median_price_psf_train_results_with_rank.xlsx
+++ b/data/reports/median_price_psf_train_results_with_rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F96F77-29C4-4754-8DEC-F7447D4D04F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA57B851-65B7-4187-B05B-DDEF4D6220D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,12 @@
     <t>rank_mse</t>
   </si>
   <si>
+    <t>rank_rmse</t>
+  </si>
+  <si>
     <t>rank_mae</t>
   </si>
   <si>
-    <t>rank_rmse</t>
-  </si>
-  <si>
     <t>rank_mape</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>MSE</t>
   </si>
   <si>
+    <t>RMSE</t>
+  </si>
+  <si>
     <t>MAE</t>
   </si>
   <si>
-    <t>RMSE</t>
-  </si>
-  <si>
     <t>MAPE</t>
   </si>
   <si>
@@ -115,49 +115,49 @@
     <t>MGD</t>
   </si>
   <si>
-    <t>ARIMA(2, 1, 2)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 1, 1)</t>
-  </si>
-  <si>
-    <t>ARIMA(1, 1, 2)</t>
-  </si>
-  <si>
-    <t>ARIMA(2, 2, 1)</t>
-  </si>
-  <si>
-    <t>ARIMA(2, 1, 1)</t>
-  </si>
-  <si>
-    <t>SARIMAX(2, 1, 2)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 1, 1)</t>
-  </si>
-  <si>
-    <t>SARIMAX(1, 1, 2)</t>
-  </si>
-  <si>
-    <t>SARIMAX(2, 2, 1)</t>
-  </si>
-  <si>
-    <t>SARIMAX(2, 1, 1)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=6)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=11)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=10)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters(p=3)</t>
+    <t>ARIMA (2, 1, 2)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 1, 1)</t>
+  </si>
+  <si>
+    <t>ARIMA (1, 1, 2)</t>
+  </si>
+  <si>
+    <t>ARIMA (2, 2, 1)</t>
+  </si>
+  <si>
+    <t>ARIMA (2, 1, 1)</t>
+  </si>
+  <si>
+    <t>SARIMAX (2, 1, 2)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 1, 1)</t>
+  </si>
+  <si>
+    <t>SARIMAX (1, 1, 2)</t>
+  </si>
+  <si>
+    <t>SARIMAX (2, 2, 1)</t>
+  </si>
+  <si>
+    <t>SARIMAX (2, 1, 1)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=6)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=11)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=10)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=2)</t>
+  </si>
+  <si>
+    <t>Holt-Winters (p=3)</t>
   </si>
 </sst>
 </file>
@@ -229,97 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -680,23 +590,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -832,10 +734,10 @@
         <v>2.5</v>
       </c>
       <c r="N2">
+        <v>2.5</v>
+      </c>
+      <c r="O2">
         <v>7.5</v>
-      </c>
-      <c r="O2">
-        <v>2.5</v>
       </c>
       <c r="P2">
         <v>7.5</v>
@@ -861,11 +763,11 @@
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:AD2" si="0">_xlfn.CONCAT(ROUND(C2,6)," (",N2,")")</f>
-        <v>13.986138 (7.5)</v>
+        <v>13.986138 (2.5)</v>
       </c>
       <c r="X2" t="str">
         <f t="shared" si="0"/>
-        <v>12.515858 (2.5)</v>
+        <v>12.515858 (7.5)</v>
       </c>
       <c r="Y2" t="str">
         <f t="shared" si="0"/>
@@ -892,14 +794,10 @@
         <v>0.001069 (2.5)</v>
       </c>
       <c r="AE2" s="2">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AF2" s="2">
-        <f>AVERAGE(M2:U2)</f>
-        <v>4.166666666666667</v>
+        <v>3.916666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -940,10 +838,10 @@
         <v>4.5</v>
       </c>
       <c r="N3">
+        <v>4.5</v>
+      </c>
+      <c r="O3">
         <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>4.5</v>
       </c>
       <c r="P3">
         <v>1.5</v>
@@ -964,16 +862,16 @@
         <v>4.5</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V15" si="1">_xlfn.CONCAT(ROUND(B3,6)," (",M3,")")</f>
+        <f t="shared" ref="V3:V16" si="1">_xlfn.CONCAT(ROUND(B3,6)," (",M3,")")</f>
         <v>198.903755 (4.5)</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W16" si="2">_xlfn.CONCAT(ROUND(C3,6)," (",N3,")")</f>
-        <v>14.103324 (1.5)</v>
+        <v>14.103324 (4.5)</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X16" si="3">_xlfn.CONCAT(ROUND(D3,6)," (",O3,")")</f>
-        <v>10.667647 (4.5)</v>
+        <v>10.667647 (1.5)</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y16" si="4">_xlfn.CONCAT(ROUND(E3,6)," (",P3,")")</f>
@@ -1000,14 +898,10 @@
         <v>0.00108 (4.5)</v>
       </c>
       <c r="AE3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF16" si="10">AVERAGE(M3:U3)</f>
-        <v>4.3888888888888893</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1048,10 +942,10 @@
         <v>6.5</v>
       </c>
       <c r="N4">
+        <v>6.5</v>
+      </c>
+      <c r="O4">
         <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>6.5</v>
       </c>
       <c r="P4">
         <v>4.5</v>
@@ -1077,11 +971,11 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
-        <v>14.364104 (4.5)</v>
+        <v>14.364104 (6.5)</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="3"/>
-        <v>11.021327 (6.5)</v>
+        <v>11.021327 (4.5)</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="4"/>
@@ -1108,14 +1002,10 @@
         <v>0.001121 (6.5)</v>
       </c>
       <c r="AE4" s="2">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="AF4" s="2">
-        <f t="shared" si="10"/>
-        <v>5.9444444444444446</v>
+        <v>5.6166666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1216,14 +1106,10 @@
         <v>0.001239 (9.5)</v>
       </c>
       <c r="AE5" s="2">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AF5" s="2">
-        <f t="shared" si="10"/>
-        <v>8.8333333333333339</v>
+        <v>8.3166666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1264,10 +1150,10 @@
         <v>14.5</v>
       </c>
       <c r="N6">
+        <v>14.5</v>
+      </c>
+      <c r="O6">
         <v>13.5</v>
-      </c>
-      <c r="O6">
-        <v>14.5</v>
       </c>
       <c r="P6">
         <v>13.5</v>
@@ -1293,11 +1179,11 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="2"/>
-        <v>17.175714 (13.5)</v>
+        <v>17.175714 (14.5)</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="3"/>
-        <v>14.139231 (14.5)</v>
+        <v>14.139231 (13.5)</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="4"/>
@@ -1324,14 +1210,10 @@
         <v>0.001592 (14.5)</v>
       </c>
       <c r="AE6" s="2">
-        <v>5.1111111111111107</v>
-      </c>
-      <c r="AF6" s="2">
-        <f t="shared" si="10"/>
-        <v>14.166666666666666</v>
+        <v>13.261111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1372,10 +1254,10 @@
         <v>2.5</v>
       </c>
       <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
         <v>7.5</v>
-      </c>
-      <c r="O7">
-        <v>2.5</v>
       </c>
       <c r="P7">
         <v>7.5</v>
@@ -1401,11 +1283,11 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
-        <v>13.986138 (7.5)</v>
+        <v>13.986138 (2.5)</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
-        <v>12.515858 (2.5)</v>
+        <v>12.515858 (7.5)</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="4"/>
@@ -1432,14 +1314,10 @@
         <v>0.001069 (2.5)</v>
       </c>
       <c r="AE7" s="2">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AF7" s="2">
-        <f t="shared" si="10"/>
-        <v>4.166666666666667</v>
+        <v>3.916666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1480,10 +1358,10 @@
         <v>4.5</v>
       </c>
       <c r="N8">
+        <v>4.5</v>
+      </c>
+      <c r="O8">
         <v>1.5</v>
-      </c>
-      <c r="O8">
-        <v>4.5</v>
       </c>
       <c r="P8">
         <v>1.5</v>
@@ -1509,11 +1387,11 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
-        <v>14.103324 (1.5)</v>
+        <v>14.103324 (4.5)</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
-        <v>10.667647 (4.5)</v>
+        <v>10.667647 (1.5)</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="4"/>
@@ -1540,14 +1418,10 @@
         <v>0.00108 (4.5)</v>
       </c>
       <c r="AE8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="2">
-        <f t="shared" si="10"/>
-        <v>4.3888888888888893</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1588,10 +1462,10 @@
         <v>6.5</v>
       </c>
       <c r="N9">
+        <v>6.5</v>
+      </c>
+      <c r="O9">
         <v>4.5</v>
-      </c>
-      <c r="O9">
-        <v>6.5</v>
       </c>
       <c r="P9">
         <v>4.5</v>
@@ -1617,11 +1491,11 @@
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
-        <v>14.364104 (4.5)</v>
+        <v>14.364104 (6.5)</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="3"/>
-        <v>11.021327 (6.5)</v>
+        <v>11.021327 (4.5)</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="4"/>
@@ -1648,14 +1522,10 @@
         <v>0.001121 (6.5)</v>
       </c>
       <c r="AE9" s="2">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="10"/>
-        <v>5.9444444444444446</v>
+        <v>5.6166666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1756,14 +1626,10 @@
         <v>0.001239 (9.5)</v>
       </c>
       <c r="AE10" s="2">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" si="10"/>
-        <v>8.8333333333333339</v>
+        <v>8.3166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1804,10 +1670,10 @@
         <v>14.5</v>
       </c>
       <c r="N11">
+        <v>14.5</v>
+      </c>
+      <c r="O11">
         <v>13.5</v>
-      </c>
-      <c r="O11">
-        <v>14.5</v>
       </c>
       <c r="P11">
         <v>13.5</v>
@@ -1833,11 +1699,11 @@
       </c>
       <c r="W11" t="str">
         <f t="shared" si="2"/>
-        <v>17.175714 (13.5)</v>
+        <v>17.175714 (14.5)</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="3"/>
-        <v>14.139231 (14.5)</v>
+        <v>14.139231 (13.5)</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="4"/>
@@ -1864,14 +1730,10 @@
         <v>0.001592 (14.5)</v>
       </c>
       <c r="AE11" s="2">
-        <v>5.1111111111111107</v>
-      </c>
-      <c r="AF11" s="2">
-        <f t="shared" si="10"/>
-        <v>14.166666666666666</v>
+        <v>13.261111111111109</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1912,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>3</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1941,11 +1803,11 @@
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
-        <v>12.83139 (3)</v>
+        <v>12.83139 (1)</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="3"/>
-        <v>10.930475 (1)</v>
+        <v>10.930475 (3)</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="4"/>
@@ -1972,14 +1834,10 @@
         <v>0.000895 (1)</v>
       </c>
       <c r="AE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4444444444444444</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2020,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
         <v>6</v>
-      </c>
-      <c r="O13">
-        <v>8</v>
       </c>
       <c r="P13">
         <v>6</v>
@@ -2049,11 +1907,11 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
-        <v>14.765086 (6)</v>
+        <v>14.765086 (8)</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="3"/>
-        <v>11.663975 (8)</v>
+        <v>11.663975 (6)</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="4"/>
@@ -2080,14 +1938,10 @@
         <v>0.001183 (8)</v>
       </c>
       <c r="AE13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8888888888888893</v>
+        <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2188,14 +2042,10 @@
         <v>0.001312 (11)</v>
       </c>
       <c r="AE14" s="2">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="10"/>
-        <v>11.444444444444445</v>
+        <v>10.66666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2296,14 +2146,10 @@
         <v>0.001346 (12)</v>
       </c>
       <c r="AE15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="2">
-        <f t="shared" si="10"/>
-        <v>11.888888888888889</v>
+        <v>11.1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2344,10 +2190,10 @@
         <v>13</v>
       </c>
       <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
         <v>15</v>
-      </c>
-      <c r="O16">
-        <v>13</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -2368,16 +2214,16 @@
         <v>13</v>
       </c>
       <c r="V16" t="str">
-        <f>_xlfn.CONCAT(ROUND(B16,6)," (",M16,")")</f>
+        <f t="shared" si="1"/>
         <v>278.605658 (13)</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="2"/>
-        <v>16.691485 (15)</v>
+        <v>16.691485 (13)</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="3"/>
-        <v>14.730725 (13)</v>
+        <v>14.730725 (15)</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="4"/>
@@ -2404,27 +2250,17 @@
         <v>0.001506 (13)</v>
       </c>
       <c r="AE16" s="2">
-        <v>5.2222222222222223</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="10"/>
-        <v>13.333333333333334</v>
+        <v>12.52222222222222</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AE2:AE16">
+    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:U16">
-    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N16">
-    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P16">
-    <cfRule type="top10" dxfId="6" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE16">
-    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF16">
+  <conditionalFormatting sqref="O2:P16">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/reports/median_price_psf_train_results_with_rank.xlsx
+++ b/data/reports/median_price_psf_train_results_with_rank.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA57B851-65B7-4187-B05B-DDEF4D6220D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
   <si>
     <t>model</t>
   </si>
@@ -145,29 +139,296 @@
     <t>SARIMAX (2, 1, 1)</t>
   </si>
   <si>
-    <t>Holt-Winters (p=6)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=11)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=10)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=3)</t>
+    <t>Holt (p=6)</t>
+  </si>
+  <si>
+    <t>Holt (p=11)</t>
+  </si>
+  <si>
+    <t>Holt (p=10)</t>
+  </si>
+  <si>
+    <t>Holt (p=2)</t>
+  </si>
+  <si>
+    <t>Holt (p=3)</t>
+  </si>
+  <si>
+    <t>195.61206671604592 (2.5)</t>
+  </si>
+  <si>
+    <t>198.90375460212329 (4.5)</t>
+  </si>
+  <si>
+    <t>206.3274848740772 (6.5)</t>
+  </si>
+  <si>
+    <t>229.11793919227077 (9.5)</t>
+  </si>
+  <si>
+    <t>295.0051684651051 (14.5)</t>
+  </si>
+  <si>
+    <t>164.64458150520042 (1.0)</t>
+  </si>
+  <si>
+    <t>218.00775588900737 (8.0)</t>
+  </si>
+  <si>
+    <t>243.4204567108011 (11.0)</t>
+  </si>
+  <si>
+    <t>248.7734200564249 (12.0)</t>
+  </si>
+  <si>
+    <t>278.60565797013896 (13.0)</t>
+  </si>
+  <si>
+    <t>13.986138377552466 (2.5)</t>
+  </si>
+  <si>
+    <t>14.103324239416864 (4.5)</t>
+  </si>
+  <si>
+    <t>14.364104040074244 (6.5)</t>
+  </si>
+  <si>
+    <t>15.136642269415987 (9.5)</t>
+  </si>
+  <si>
+    <t>17.1757144964949 (14.5)</t>
+  </si>
+  <si>
+    <t>12.831390474348462 (1.0)</t>
+  </si>
+  <si>
+    <t>14.765085705440635 (8.0)</t>
+  </si>
+  <si>
+    <t>15.601937594760502 (11.0)</t>
+  </si>
+  <si>
+    <t>15.772552743814963 (12.0)</t>
+  </si>
+  <si>
+    <t>16.691484594551167 (13.0)</t>
+  </si>
+  <si>
+    <t>12.515858185688558 (7.5)</t>
+  </si>
+  <si>
+    <t>10.667647066404205 (1.5)</t>
+  </si>
+  <si>
+    <t>11.021326978397857 (4.5)</t>
+  </si>
+  <si>
+    <t>12.703917872485752 (9.5)</t>
+  </si>
+  <si>
+    <t>14.139231254192433 (13.5)</t>
+  </si>
+  <si>
+    <t>10.93047539131688 (3.0)</t>
+  </si>
+  <si>
+    <t>11.663974561182462 (6.0)</t>
+  </si>
+  <si>
+    <t>13.041888472621613 (11.0)</t>
+  </si>
+  <si>
+    <t>13.182743035370313 (12.0)</t>
+  </si>
+  <si>
+    <t>14.730725015740726 (15.0)</t>
+  </si>
+  <si>
+    <t>0.029146619471802988 (7.5)</t>
+  </si>
+  <si>
+    <t>0.024981954376955245 (1.5)</t>
+  </si>
+  <si>
+    <t>0.025861863503459037 (4.5)</t>
+  </si>
+  <si>
+    <t>0.029879833247954277 (9.5)</t>
+  </si>
+  <si>
+    <t>0.0334273516883064 (13.5)</t>
+  </si>
+  <si>
+    <t>0.025833770454115387 (3.0)</t>
+  </si>
+  <si>
+    <t>0.027462967413884317 (6.0)</t>
+  </si>
+  <si>
+    <t>0.030920468707210273 (11.0)</t>
+  </si>
+  <si>
+    <t>0.03128672185487565 (12.0)</t>
+  </si>
+  <si>
+    <t>0.034901856087658514 (15.0)</t>
+  </si>
+  <si>
+    <t>0.014721130256021175 (2.5)</t>
+  </si>
+  <si>
+    <t>-0.0018587800449736402 (4.5)</t>
+  </si>
+  <si>
+    <t>-0.03925138416408802 (6.5)</t>
+  </si>
+  <si>
+    <t>-0.15404467605327166 (9.5)</t>
+  </si>
+  <si>
+    <t>-0.4859122130531017 (14.5)</t>
+  </si>
+  <si>
+    <t>0.17070132789713333 (1.0)</t>
+  </si>
+  <si>
+    <t>-0.09808376816317654 (8.0)</t>
+  </si>
+  <si>
+    <t>-0.22608505951083813 (11.0)</t>
+  </si>
+  <si>
+    <t>-0.2530474129254321 (12.0)</t>
+  </si>
+  <si>
+    <t>-0.40330948083878426 (13.0)</t>
+  </si>
+  <si>
+    <t>23.144528459633364 (7.5)</t>
+  </si>
+  <si>
+    <t>23.721315699967136 (9.5)</t>
+  </si>
+  <si>
+    <t>23.034161831942072 (5.5)</t>
+  </si>
+  <si>
+    <t>21.969266537301394 (3.5)</t>
+  </si>
+  <si>
+    <t>26.840270183269354 (13.5)</t>
+  </si>
+  <si>
+    <t>18.111150335684897 (1.0)</t>
+  </si>
+  <si>
+    <t>21.15298273326789 (2.0)</t>
+  </si>
+  <si>
+    <t>28.666720403008924 (15.0)</t>
+  </si>
+  <si>
+    <t>26.122961986521773 (11.0)</t>
+  </si>
+  <si>
+    <t>26.48693578865698 (12.0)</t>
+  </si>
+  <si>
+    <t>0.03250726973674613 (2.5)</t>
+  </si>
+  <si>
+    <t>0.03278046916964268 (4.5)</t>
+  </si>
+  <si>
+    <t>0.033421019181203236 (6.5)</t>
+  </si>
+  <si>
+    <t>0.03520071393883031 (9.5)</t>
+  </si>
+  <si>
+    <t>0.04002471506998098 (14.5)</t>
+  </si>
+  <si>
+    <t>0.029985664910120616 (1.0)</t>
+  </si>
+  <si>
+    <t>0.034409843854576065 (8.0)</t>
+  </si>
+  <si>
+    <t>0.036403781142172124 (11.0)</t>
+  </si>
+  <si>
+    <t>0.03686116291808585 (12.0)</t>
+  </si>
+  <si>
+    <t>0.03898140329751766 (13.0)</t>
+  </si>
+  <si>
+    <t>0.4571801510851022 (2.5)</t>
+  </si>
+  <si>
+    <t>0.4634496668772954 (4.5)</t>
+  </si>
+  <si>
+    <t>0.4807550687076893 (6.5)</t>
+  </si>
+  <si>
+    <t>0.5326427702831514 (9.5)</t>
+  </si>
+  <si>
+    <t>0.6851535715517988 (14.5)</t>
+  </si>
+  <si>
+    <t>0.38380043227838695 (1.0)</t>
+  </si>
+  <si>
+    <t>0.5078354109458777 (8.0)</t>
+  </si>
+  <si>
+    <t>0.5650595450644195 (11.0)</t>
+  </si>
+  <si>
+    <t>0.5785502738275076 (12.0)</t>
+  </si>
+  <si>
+    <t>0.6477087172001651 (13.0)</t>
+  </si>
+  <si>
+    <t>0.0010690454426978875 (2.5)</t>
+  </si>
+  <si>
+    <t>0.0010802659646134878 (4.5)</t>
+  </si>
+  <si>
+    <t>0.0011206065399667804 (6.5)</t>
+  </si>
+  <si>
+    <t>0.001238706734496257 (9.5)</t>
+  </si>
+  <si>
+    <t>0.001591755921459918 (14.5)</t>
+  </si>
+  <si>
+    <t>0.0008950957506928722 (1.0)</t>
+  </si>
+  <si>
+    <t>0.0011833919848839673 (8.0)</t>
+  </si>
+  <si>
+    <t>0.0013121827554368377 (11.0)</t>
+  </si>
+  <si>
+    <t>0.0013459385618053155 (12.0)</t>
+  </si>
+  <si>
+    <t>0.0015062577220275042 (13.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,94 +480,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +535,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -378,7 +569,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -413,10 +603,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,16 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,66 +850,66 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
-        <v>195.61206671604589</v>
+        <v>195.6120667160459</v>
       </c>
       <c r="C2">
         <v>13.98613837755247</v>
       </c>
       <c r="D2">
-        <v>12.515858185688559</v>
+        <v>12.51585818568856</v>
       </c>
       <c r="E2">
-        <v>2.9146619471802991E-2</v>
+        <v>0.02914661947180299</v>
       </c>
       <c r="F2">
-        <v>1.4721130256021181E-2</v>
+        <v>0.01472113025602118</v>
       </c>
       <c r="G2">
         <v>23.14452845963336</v>
       </c>
       <c r="H2">
-        <v>3.2507269736746128E-2</v>
+        <v>0.03250726973674613</v>
       </c>
       <c r="I2">
-        <v>0.45718015108510218</v>
+        <v>0.4571801510851022</v>
       </c>
       <c r="J2">
-        <v>1.0690454426978871E-3</v>
+        <v>0.001069045442697887</v>
       </c>
       <c r="K2">
         <v>1032.34445017392</v>
@@ -757,79 +944,70 @@
       <c r="U2">
         <v>2.5</v>
       </c>
-      <c r="V2" t="str">
-        <f>_xlfn.CONCAT(ROUND(B2,6)," (",M2,")")</f>
-        <v>195.612067 (2.5)</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" ref="W2:AD2" si="0">_xlfn.CONCAT(ROUND(C2,6)," (",N2,")")</f>
-        <v>13.986138 (2.5)</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
-        <v>12.515858 (7.5)</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.029147 (7.5)</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.014721 (2.5)</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
-        <v>23.144528 (7.5)</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.032507 (2.5)</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.45718 (2.5)</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.001069 (2.5)</v>
-      </c>
-      <c r="AE2" s="2">
+      <c r="V2">
         <v>3.916666666666667</v>
       </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3">
-        <v>198.90375460212331</v>
+        <v>198.9037546021233</v>
       </c>
       <c r="C3">
         <v>14.10332423941686</v>
       </c>
       <c r="D3">
-        <v>10.667647066404211</v>
+        <v>10.66764706640421</v>
       </c>
       <c r="E3">
-        <v>2.4981954376955249E-2</v>
+        <v>0.02498195437695525</v>
       </c>
       <c r="F3">
-        <v>-1.85878004497364E-3</v>
+        <v>-0.00185878004497364</v>
       </c>
       <c r="G3">
-        <v>23.721315699967139</v>
+        <v>23.72131569996714</v>
       </c>
       <c r="H3">
-        <v>3.2780469169642681E-2</v>
+        <v>0.03278046916964268</v>
       </c>
       <c r="I3">
-        <v>0.46344966687729539</v>
+        <v>0.4634496668772954</v>
       </c>
       <c r="J3">
-        <v>1.080265964613488E-3</v>
+        <v>0.001080265964613488</v>
       </c>
       <c r="K3">
-        <v>1035.0328631359639</v>
+        <v>1035.032863135964</v>
       </c>
       <c r="L3">
         <v>1043.370233615299</v>
@@ -861,82 +1039,73 @@
       <c r="U3">
         <v>4.5</v>
       </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V16" si="1">_xlfn.CONCAT(ROUND(B3,6)," (",M3,")")</f>
-        <v>198.903755 (4.5)</v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W16" si="2">_xlfn.CONCAT(ROUND(C3,6)," (",N3,")")</f>
-        <v>14.103324 (4.5)</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X16" si="3">_xlfn.CONCAT(ROUND(D3,6)," (",O3,")")</f>
-        <v>10.667647 (1.5)</v>
-      </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y16" si="4">_xlfn.CONCAT(ROUND(E3,6)," (",P3,")")</f>
-        <v>0.024982 (1.5)</v>
-      </c>
-      <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z16" si="5">_xlfn.CONCAT(ROUND(F3,6)," (",Q3,")")</f>
-        <v>-0.001859 (4.5)</v>
-      </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA16" si="6">_xlfn.CONCAT(ROUND(G3,6)," (",R3,")")</f>
-        <v>23.721316 (9.5)</v>
-      </c>
-      <c r="AB3" t="str">
-        <f t="shared" ref="AB3:AB16" si="7">_xlfn.CONCAT(ROUND(H3,6)," (",S3,")")</f>
-        <v>0.03278 (4.5)</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC16" si="8">_xlfn.CONCAT(ROUND(I3,6)," (",T3,")")</f>
-        <v>0.46345 (4.5)</v>
-      </c>
-      <c r="AD3" t="str">
-        <f t="shared" ref="AD3:AD16" si="9">_xlfn.CONCAT(ROUND(J3,6)," (",U3,")")</f>
-        <v>0.00108 (4.5)</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>4.1500000000000004</v>
+      <c r="V3">
+        <v>4.15</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4">
-        <v>206.32748487407719</v>
+        <v>206.3274848740772</v>
       </c>
       <c r="C4">
         <v>14.36410404007424</v>
       </c>
       <c r="D4">
-        <v>11.021326978397861</v>
+        <v>11.02132697839786</v>
       </c>
       <c r="E4">
-        <v>2.5861863503459041E-2</v>
+        <v>0.02586186350345904</v>
       </c>
       <c r="F4">
-        <v>-3.9251384164088021E-2</v>
+        <v>-0.03925138416408802</v>
       </c>
       <c r="G4">
-        <v>23.034161831942068</v>
+        <v>23.03416183194207</v>
       </c>
       <c r="H4">
-        <v>3.3421019181203243E-2</v>
+        <v>0.03342101918120324</v>
       </c>
       <c r="I4">
         <v>0.4807550687076893</v>
       </c>
       <c r="J4">
-        <v>1.12060653996678E-3</v>
+        <v>0.00112060653996678</v>
       </c>
       <c r="K4">
-        <v>1036.6098410596851</v>
+        <v>1036.609841059685</v>
       </c>
       <c r="L4">
-        <v>1047.7263350321309</v>
+        <v>1047.726335032131</v>
       </c>
       <c r="M4">
         <v>6.5</v>
@@ -965,47 +1134,38 @@
       <c r="U4">
         <v>6.5</v>
       </c>
-      <c r="V4" t="str">
-        <f t="shared" si="1"/>
-        <v>206.327485 (6.5)</v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="2"/>
-        <v>14.364104 (6.5)</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="3"/>
-        <v>11.021327 (4.5)</v>
-      </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="4"/>
-        <v>0.025862 (4.5)</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.039251 (6.5)</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="6"/>
-        <v>23.034162 (5.5)</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="7"/>
-        <v>0.033421 (6.5)</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="8"/>
-        <v>0.480755 (6.5)</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001121 (6.5)</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>5.6166666666666663</v>
+      <c r="V4">
+        <v>5.616666666666666</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1019,22 +1179,22 @@
         <v>12.70391787248575</v>
       </c>
       <c r="E5">
-        <v>2.987983324795428E-2</v>
+        <v>0.02987983324795428</v>
       </c>
       <c r="F5">
-        <v>-0.15404467605327171</v>
+        <v>-0.1540446760532717</v>
       </c>
       <c r="G5">
         <v>21.96926653730139</v>
       </c>
       <c r="H5">
-        <v>3.5200713938830307E-2</v>
+        <v>0.03520071393883031</v>
       </c>
       <c r="I5">
-        <v>0.53264277028315143</v>
+        <v>0.5326427702831514</v>
       </c>
       <c r="J5">
-        <v>1.238706734496257E-3</v>
+        <v>0.001238706734496257</v>
       </c>
       <c r="K5">
         <v>1036.918225170449</v>
@@ -1069,47 +1229,38 @@
       <c r="U5">
         <v>9.5</v>
       </c>
-      <c r="V5" t="str">
-        <f t="shared" si="1"/>
-        <v>229.117939 (9.5)</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="2"/>
-        <v>15.136642 (9.5)</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="3"/>
-        <v>12.703918 (9.5)</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.02988 (9.5)</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.154045 (9.5)</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="6"/>
-        <v>21.969267 (3.5)</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="7"/>
-        <v>0.035201 (9.5)</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="8"/>
-        <v>0.532643 (9.5)</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001239 (9.5)</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>8.3166666666666664</v>
+      <c r="V5">
+        <v>8.316666666666666</v>
+      </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1117,34 +1268,34 @@
         <v>295.0051684651051</v>
       </c>
       <c r="C6">
-        <v>17.175714496494901</v>
+        <v>17.1757144964949</v>
       </c>
       <c r="D6">
-        <v>14.139231254192429</v>
+        <v>14.13923125419243</v>
       </c>
       <c r="E6">
-        <v>3.3427351688306399E-2</v>
+        <v>0.0334273516883064</v>
       </c>
       <c r="F6">
-        <v>-0.48591221305310173</v>
+        <v>-0.4859122130531017</v>
       </c>
       <c r="G6">
         <v>26.84027018326935</v>
       </c>
       <c r="H6">
-        <v>4.0024715069980982E-2</v>
+        <v>0.04002471506998098</v>
       </c>
       <c r="I6">
-        <v>0.68515357155179879</v>
+        <v>0.6851535715517988</v>
       </c>
       <c r="J6">
-        <v>1.591755921459918E-3</v>
+        <v>0.001591755921459918</v>
       </c>
       <c r="K6">
         <v>1034.749080540809</v>
       </c>
       <c r="L6">
-        <v>1045.8655745132551</v>
+        <v>1045.865574513255</v>
       </c>
       <c r="M6">
         <v>14.5</v>
@@ -1173,76 +1324,67 @@
       <c r="U6">
         <v>14.5</v>
       </c>
-      <c r="V6" t="str">
-        <f t="shared" si="1"/>
-        <v>295.005168 (14.5)</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="2"/>
-        <v>17.175714 (14.5)</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="3"/>
-        <v>14.139231 (13.5)</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="4"/>
-        <v>0.033427 (13.5)</v>
-      </c>
-      <c r="Z6" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.485912 (14.5)</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="6"/>
-        <v>26.84027 (13.5)</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="7"/>
-        <v>0.040025 (14.5)</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="8"/>
-        <v>0.685154 (14.5)</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001592 (14.5)</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>13.261111111111109</v>
+      <c r="V6">
+        <v>13.26111111111111</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7">
-        <v>195.61206671604589</v>
+        <v>195.6120667160459</v>
       </c>
       <c r="C7">
         <v>13.98613837755247</v>
       </c>
       <c r="D7">
-        <v>12.515858185688559</v>
+        <v>12.51585818568856</v>
       </c>
       <c r="E7">
-        <v>2.9146619471802991E-2</v>
+        <v>0.02914661947180299</v>
       </c>
       <c r="F7">
-        <v>1.4721130256021181E-2</v>
+        <v>0.01472113025602118</v>
       </c>
       <c r="G7">
         <v>23.14452845963336</v>
       </c>
       <c r="H7">
-        <v>3.2507269736746128E-2</v>
+        <v>0.03250726973674613</v>
       </c>
       <c r="I7">
-        <v>0.45718015108510218</v>
+        <v>0.4571801510851022</v>
       </c>
       <c r="J7">
-        <v>1.0690454426978871E-3</v>
+        <v>0.001069045442697887</v>
       </c>
       <c r="K7">
         <v>1032.34445017392</v>
@@ -1277,79 +1419,70 @@
       <c r="U7">
         <v>2.5</v>
       </c>
-      <c r="V7" t="str">
-        <f t="shared" si="1"/>
-        <v>195.612067 (2.5)</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="2"/>
-        <v>13.986138 (2.5)</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="3"/>
-        <v>12.515858 (7.5)</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="4"/>
-        <v>0.029147 (7.5)</v>
-      </c>
-      <c r="Z7" t="str">
-        <f t="shared" si="5"/>
-        <v>0.014721 (2.5)</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="6"/>
-        <v>23.144528 (7.5)</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="7"/>
-        <v>0.032507 (2.5)</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="8"/>
-        <v>0.45718 (2.5)</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001069 (2.5)</v>
-      </c>
-      <c r="AE7" s="2">
+      <c r="V7">
         <v>3.916666666666667</v>
       </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8">
-        <v>198.90375460212331</v>
+        <v>198.9037546021233</v>
       </c>
       <c r="C8">
         <v>14.10332423941686</v>
       </c>
       <c r="D8">
-        <v>10.667647066404211</v>
+        <v>10.66764706640421</v>
       </c>
       <c r="E8">
-        <v>2.4981954376955249E-2</v>
+        <v>0.02498195437695525</v>
       </c>
       <c r="F8">
-        <v>-1.85878004497364E-3</v>
+        <v>-0.00185878004497364</v>
       </c>
       <c r="G8">
-        <v>23.721315699967139</v>
+        <v>23.72131569996714</v>
       </c>
       <c r="H8">
-        <v>3.2780469169642681E-2</v>
+        <v>0.03278046916964268</v>
       </c>
       <c r="I8">
-        <v>0.46344966687729539</v>
+        <v>0.4634496668772954</v>
       </c>
       <c r="J8">
-        <v>1.080265964613488E-3</v>
+        <v>0.001080265964613488</v>
       </c>
       <c r="K8">
-        <v>1035.0328631359639</v>
+        <v>1035.032863135964</v>
       </c>
       <c r="L8">
         <v>1043.370233615299</v>
@@ -1381,82 +1514,73 @@
       <c r="U8">
         <v>4.5</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="1"/>
-        <v>198.903755 (4.5)</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="2"/>
-        <v>14.103324 (4.5)</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="3"/>
-        <v>10.667647 (1.5)</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="4"/>
-        <v>0.024982 (1.5)</v>
-      </c>
-      <c r="Z8" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.001859 (4.5)</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="6"/>
-        <v>23.721316 (9.5)</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="7"/>
-        <v>0.03278 (4.5)</v>
-      </c>
-      <c r="AC8" t="str">
-        <f t="shared" si="8"/>
-        <v>0.46345 (4.5)</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="9"/>
-        <v>0.00108 (4.5)</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>4.1500000000000004</v>
+      <c r="V8">
+        <v>4.15</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9">
-        <v>206.32748487407719</v>
+        <v>206.3274848740772</v>
       </c>
       <c r="C9">
         <v>14.36410404007424</v>
       </c>
       <c r="D9">
-        <v>11.021326978397861</v>
+        <v>11.02132697839786</v>
       </c>
       <c r="E9">
-        <v>2.5861863503459041E-2</v>
+        <v>0.02586186350345904</v>
       </c>
       <c r="F9">
-        <v>-3.9251384164088021E-2</v>
+        <v>-0.03925138416408802</v>
       </c>
       <c r="G9">
-        <v>23.034161831942068</v>
+        <v>23.03416183194207</v>
       </c>
       <c r="H9">
-        <v>3.3421019181203243E-2</v>
+        <v>0.03342101918120324</v>
       </c>
       <c r="I9">
         <v>0.4807550687076893</v>
       </c>
       <c r="J9">
-        <v>1.12060653996678E-3</v>
+        <v>0.00112060653996678</v>
       </c>
       <c r="K9">
-        <v>1036.6098410596851</v>
+        <v>1036.609841059685</v>
       </c>
       <c r="L9">
-        <v>1047.7263350321309</v>
+        <v>1047.726335032131</v>
       </c>
       <c r="M9">
         <v>6.5</v>
@@ -1485,47 +1609,38 @@
       <c r="U9">
         <v>6.5</v>
       </c>
-      <c r="V9" t="str">
-        <f t="shared" si="1"/>
-        <v>206.327485 (6.5)</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="2"/>
-        <v>14.364104 (6.5)</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="3"/>
-        <v>11.021327 (4.5)</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="4"/>
-        <v>0.025862 (4.5)</v>
-      </c>
-      <c r="Z9" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.039251 (6.5)</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="6"/>
-        <v>23.034162 (5.5)</v>
-      </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="7"/>
-        <v>0.033421 (6.5)</v>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" si="8"/>
-        <v>0.480755 (6.5)</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001121 (6.5)</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>5.6166666666666663</v>
+      <c r="V9">
+        <v>5.616666666666666</v>
+      </c>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1539,22 +1654,22 @@
         <v>12.70391787248575</v>
       </c>
       <c r="E10">
-        <v>2.987983324795428E-2</v>
+        <v>0.02987983324795428</v>
       </c>
       <c r="F10">
-        <v>-0.15404467605327171</v>
+        <v>-0.1540446760532717</v>
       </c>
       <c r="G10">
         <v>21.96926653730139</v>
       </c>
       <c r="H10">
-        <v>3.5200713938830307E-2</v>
+        <v>0.03520071393883031</v>
       </c>
       <c r="I10">
-        <v>0.53264277028315143</v>
+        <v>0.5326427702831514</v>
       </c>
       <c r="J10">
-        <v>1.238706734496257E-3</v>
+        <v>0.001238706734496257</v>
       </c>
       <c r="K10">
         <v>1036.918225170449</v>
@@ -1589,47 +1704,38 @@
       <c r="U10">
         <v>9.5</v>
       </c>
-      <c r="V10" t="str">
-        <f t="shared" si="1"/>
-        <v>229.117939 (9.5)</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="2"/>
-        <v>15.136642 (9.5)</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="3"/>
-        <v>12.703918 (9.5)</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.02988 (9.5)</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.154045 (9.5)</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="6"/>
-        <v>21.969267 (3.5)</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="7"/>
-        <v>0.035201 (9.5)</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="8"/>
-        <v>0.532643 (9.5)</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001239 (9.5)</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>8.3166666666666664</v>
+      <c r="V10">
+        <v>8.316666666666666</v>
+      </c>
+      <c r="W10" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1637,34 +1743,34 @@
         <v>295.0051684651051</v>
       </c>
       <c r="C11">
-        <v>17.175714496494901</v>
+        <v>17.1757144964949</v>
       </c>
       <c r="D11">
-        <v>14.139231254192429</v>
+        <v>14.13923125419243</v>
       </c>
       <c r="E11">
-        <v>3.3427351688306399E-2</v>
+        <v>0.0334273516883064</v>
       </c>
       <c r="F11">
-        <v>-0.48591221305310173</v>
+        <v>-0.4859122130531017</v>
       </c>
       <c r="G11">
         <v>26.84027018326935</v>
       </c>
       <c r="H11">
-        <v>4.0024715069980982E-2</v>
+        <v>0.04002471506998098</v>
       </c>
       <c r="I11">
-        <v>0.68515357155179879</v>
+        <v>0.6851535715517988</v>
       </c>
       <c r="J11">
-        <v>1.591755921459918E-3</v>
+        <v>0.001591755921459918</v>
       </c>
       <c r="K11">
         <v>1034.749080540809</v>
       </c>
       <c r="L11">
-        <v>1045.8655745132551</v>
+        <v>1045.865574513255</v>
       </c>
       <c r="M11">
         <v>14.5</v>
@@ -1693,76 +1799,67 @@
       <c r="U11">
         <v>14.5</v>
       </c>
-      <c r="V11" t="str">
-        <f t="shared" si="1"/>
-        <v>295.005168 (14.5)</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="2"/>
-        <v>17.175714 (14.5)</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="3"/>
-        <v>14.139231 (13.5)</v>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="4"/>
-        <v>0.033427 (13.5)</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.485912 (14.5)</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="6"/>
-        <v>26.84027 (13.5)</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="7"/>
-        <v>0.040025 (14.5)</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="8"/>
-        <v>0.685154 (14.5)</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001592 (14.5)</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>13.261111111111109</v>
+      <c r="V11">
+        <v>13.26111111111111</v>
+      </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
-        <v>164.64458150520039</v>
+        <v>164.6445815052004</v>
       </c>
       <c r="C12">
         <v>12.83139047434846</v>
       </c>
       <c r="D12">
-        <v>10.930475391316881</v>
+        <v>10.93047539131688</v>
       </c>
       <c r="E12">
-        <v>2.583377045411539E-2</v>
+        <v>0.02583377045411539</v>
       </c>
       <c r="F12">
         <v>0.1707013278971333</v>
       </c>
       <c r="G12">
-        <v>18.111150335684901</v>
+        <v>18.1111503356849</v>
       </c>
       <c r="H12">
-        <v>2.998566491012062E-2</v>
+        <v>0.02998566491012062</v>
       </c>
       <c r="I12">
-        <v>0.38380043227838689</v>
+        <v>0.3838004322783869</v>
       </c>
       <c r="J12">
-        <v>8.9509575069287217E-4</v>
+        <v>0.0008950957506928722</v>
       </c>
       <c r="K12">
         <v>1037.444718134524</v>
@@ -1797,47 +1894,38 @@
       <c r="U12">
         <v>1</v>
       </c>
-      <c r="V12" t="str">
-        <f t="shared" si="1"/>
-        <v>164.644582 (1)</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="2"/>
-        <v>12.83139 (1)</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="3"/>
-        <v>10.930475 (3)</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="4"/>
-        <v>0.025834 (3)</v>
-      </c>
-      <c r="Z12" t="str">
-        <f t="shared" si="5"/>
-        <v>0.170701 (1)</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="6"/>
-        <v>18.11115 (1)</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="7"/>
-        <v>0.029986 (1)</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="8"/>
-        <v>0.3838 (1)</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="9"/>
-        <v>0.000895 (1)</v>
-      </c>
-      <c r="AE12" s="2">
+      <c r="V12">
         <v>1.4</v>
       </c>
+      <c r="W12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1845,34 +1933,34 @@
         <v>218.0077558890074</v>
       </c>
       <c r="C13">
-        <v>14.765085705440629</v>
+        <v>14.76508570544063</v>
       </c>
       <c r="D13">
         <v>11.66397456118246</v>
       </c>
       <c r="E13">
-        <v>2.7462967413884321E-2</v>
+        <v>0.02746296741388432</v>
       </c>
       <c r="F13">
-        <v>-9.8083768163176543E-2</v>
+        <v>-0.09808376816317654</v>
       </c>
       <c r="G13">
-        <v>21.152982733267891</v>
+        <v>21.15298273326789</v>
       </c>
       <c r="H13">
-        <v>3.4409843854576072E-2</v>
+        <v>0.03440984385457607</v>
       </c>
       <c r="I13">
         <v>0.5078354109458777</v>
       </c>
       <c r="J13">
-        <v>1.1833919848839669E-3</v>
+        <v>0.001183391984883967</v>
       </c>
       <c r="K13">
-        <v>1043.9643500766249</v>
+        <v>1043.964350076625</v>
       </c>
       <c r="L13">
-        <v>1094.1392014467019</v>
+        <v>1094.139201446702</v>
       </c>
       <c r="M13">
         <v>8</v>
@@ -1901,52 +1989,43 @@
       <c r="U13">
         <v>8</v>
       </c>
-      <c r="V13" t="str">
-        <f t="shared" si="1"/>
-        <v>218.007756 (8)</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="2"/>
-        <v>14.765086 (8)</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="3"/>
-        <v>11.663975 (6)</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="4"/>
-        <v>0.027463 (6)</v>
-      </c>
-      <c r="Z13" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.098084 (8)</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="6"/>
-        <v>21.152983 (2)</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="7"/>
-        <v>0.03441 (8)</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="8"/>
-        <v>0.507835 (8)</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001183 (8)</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="V13">
         <v>6.4</v>
       </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14">
-        <v>243.42045671080109</v>
+        <v>243.4204567108011</v>
       </c>
       <c r="C14">
         <v>15.6019375947605</v>
@@ -1955,7 +2034,7 @@
         <v>13.04188847262161</v>
       </c>
       <c r="E14">
-        <v>3.0920468707210269E-2</v>
+        <v>0.03092046870721027</v>
       </c>
       <c r="F14">
         <v>-0.2260850595108381</v>
@@ -1964,13 +2043,13 @@
         <v>28.66672040300892</v>
       </c>
       <c r="H14">
-        <v>3.6403781142172117E-2</v>
+        <v>0.03640378114217212</v>
       </c>
       <c r="I14">
-        <v>0.56505954506441947</v>
+        <v>0.5650595450644195</v>
       </c>
       <c r="J14">
-        <v>1.3121827554368379E-3</v>
+        <v>0.001312182755436838</v>
       </c>
       <c r="K14">
         <v>1048.47911510633</v>
@@ -2005,47 +2084,38 @@
       <c r="U14">
         <v>11</v>
       </c>
-      <c r="V14" t="str">
-        <f t="shared" si="1"/>
-        <v>243.420457 (11)</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="2"/>
-        <v>15.601938 (11)</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="3"/>
-        <v>13.041888 (11)</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="4"/>
-        <v>0.03092 (11)</v>
-      </c>
-      <c r="Z14" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.226085 (11)</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="6"/>
-        <v>28.66672 (15)</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="7"/>
-        <v>0.036404 (11)</v>
-      </c>
-      <c r="AC14" t="str">
-        <f t="shared" si="8"/>
-        <v>0.56506 (11)</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001312 (11)</v>
-      </c>
-      <c r="AE14" s="2">
+      <c r="V14">
         <v>10.66666666666667</v>
       </c>
+      <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2053,31 +2123,31 @@
         <v>248.7734200564249</v>
       </c>
       <c r="C15">
-        <v>15.772552743814961</v>
+        <v>15.77255274381496</v>
       </c>
       <c r="D15">
         <v>13.18274303537031</v>
       </c>
       <c r="E15">
-        <v>3.1286721854875653E-2</v>
+        <v>0.03128672185487565</v>
       </c>
       <c r="F15">
-        <v>-0.25304741292543209</v>
+        <v>-0.2530474129254321</v>
       </c>
       <c r="G15">
-        <v>26.122961986521769</v>
+        <v>26.12296198652177</v>
       </c>
       <c r="H15">
-        <v>3.6861162918085853E-2</v>
+        <v>0.03686116291808585</v>
       </c>
       <c r="I15">
-        <v>0.57855027382750757</v>
+        <v>0.5785502738275076</v>
       </c>
       <c r="J15">
-        <v>1.345938561805315E-3</v>
+        <v>0.001345938561805315</v>
       </c>
       <c r="K15">
-        <v>1035.9465440454151</v>
+        <v>1035.946544045415</v>
       </c>
       <c r="L15">
         <v>1061.033969730453</v>
@@ -2109,82 +2179,73 @@
       <c r="U15">
         <v>12</v>
       </c>
-      <c r="V15" t="str">
-        <f t="shared" si="1"/>
-        <v>248.77342 (12)</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="2"/>
-        <v>15.772553 (12)</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="3"/>
-        <v>13.182743 (12)</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="4"/>
-        <v>0.031287 (12)</v>
-      </c>
-      <c r="Z15" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.253047 (12)</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="6"/>
-        <v>26.122962 (11)</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="7"/>
-        <v>0.036861 (12)</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="8"/>
-        <v>0.57855 (12)</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001346 (12)</v>
-      </c>
-      <c r="AE15" s="2">
+      <c r="V15">
         <v>11.1</v>
       </c>
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16">
-        <v>278.60565797013902</v>
+        <v>278.605657970139</v>
       </c>
       <c r="C16">
         <v>16.69148459455117</v>
       </c>
       <c r="D16">
-        <v>14.730725015740729</v>
+        <v>14.73072501574073</v>
       </c>
       <c r="E16">
-        <v>3.4901856087658507E-2</v>
+        <v>0.03490185608765851</v>
       </c>
       <c r="F16">
-        <v>-0.40330948083878432</v>
+        <v>-0.4033094808387843</v>
       </c>
       <c r="G16">
-        <v>26.486935788656979</v>
+        <v>26.48693578865698</v>
       </c>
       <c r="H16">
-        <v>3.8981403297517661E-2</v>
+        <v>0.03898140329751766</v>
       </c>
       <c r="I16">
         <v>0.6477087172001651</v>
       </c>
       <c r="J16">
-        <v>1.506257722027504E-3</v>
+        <v>0.001506257722027504</v>
       </c>
       <c r="K16">
-        <v>1044.0692289262849</v>
+        <v>1044.069228926285</v>
       </c>
       <c r="L16">
-        <v>1071.9441463541059</v>
+        <v>1071.944146354106</v>
       </c>
       <c r="M16">
         <v>13</v>
@@ -2213,56 +2274,38 @@
       <c r="U16">
         <v>13</v>
       </c>
-      <c r="V16" t="str">
-        <f t="shared" si="1"/>
-        <v>278.605658 (13)</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="2"/>
-        <v>16.691485 (13)</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="3"/>
-        <v>14.730725 (15)</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="4"/>
-        <v>0.034902 (15)</v>
-      </c>
-      <c r="Z16" t="str">
-        <f t="shared" si="5"/>
-        <v>-0.403309 (13)</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="6"/>
-        <v>26.486936 (12)</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="7"/>
-        <v>0.038981 (13)</v>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="8"/>
-        <v>0.647709 (13)</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001506 (13)</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="V16">
         <v>12.52222222222222</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AE2:AE16">
-    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:U16">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P16">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>